--- a/02-output/wine_country_stats/Q2E_Australia.xlsx
+++ b/02-output/wine_country_stats/Q2E_Australia.xlsx
@@ -25,52 +25,52 @@
     <t>price mean</t>
   </si>
   <si>
+    <t>price std</t>
+  </si>
+  <si>
+    <t>price min</t>
+  </si>
+  <si>
+    <t>price 25%</t>
+  </si>
+  <si>
+    <t>price 50%</t>
+  </si>
+  <si>
+    <t>price 75%</t>
+  </si>
+  <si>
+    <t>price max</t>
+  </si>
+  <si>
     <t>price median</t>
   </si>
   <si>
-    <t>price std</t>
-  </si>
-  <si>
-    <t>price min</t>
-  </si>
-  <si>
-    <t>price 25%</t>
-  </si>
-  <si>
-    <t>price 50%</t>
-  </si>
-  <si>
-    <t>price 75%</t>
-  </si>
-  <si>
-    <t>price max</t>
-  </si>
-  <si>
     <t>points count</t>
   </si>
   <si>
     <t>points mean</t>
   </si>
   <si>
+    <t>points std</t>
+  </si>
+  <si>
+    <t>points min</t>
+  </si>
+  <si>
+    <t>points 25%</t>
+  </si>
+  <si>
+    <t>points 50%</t>
+  </si>
+  <si>
+    <t>points 75%</t>
+  </si>
+  <si>
+    <t>points max</t>
+  </si>
+  <si>
     <t>points median</t>
-  </si>
-  <si>
-    <t>points std</t>
-  </si>
-  <si>
-    <t>points min</t>
-  </si>
-  <si>
-    <t>points 25%</t>
-  </si>
-  <si>
-    <t>points 50%</t>
-  </si>
-  <si>
-    <t>points 75%</t>
-  </si>
-  <si>
-    <t>points max</t>
   </si>
   <si>
     <t>Australia Other</t>
@@ -459,16 +459,15 @@
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -542,25 +541,25 @@
         <v>12.39150943396226</v>
       </c>
       <c r="D2">
+        <v>9.891473832692929</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>9.891473832692929</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>130</v>
+      </c>
+      <c r="J2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>130</v>
       </c>
       <c r="L2">
         <v>212</v>
@@ -569,25 +568,25 @@
         <v>85.51886792452831</v>
       </c>
       <c r="N2">
+        <v>2.22323419286234</v>
+      </c>
+      <c r="O2">
+        <v>80</v>
+      </c>
+      <c r="P2">
+        <v>84</v>
+      </c>
+      <c r="Q2">
         <v>85</v>
       </c>
-      <c r="O2">
-        <v>2.22323419286234</v>
-      </c>
-      <c r="P2">
-        <v>80</v>
-      </c>
-      <c r="Q2">
-        <v>84</v>
-      </c>
       <c r="R2">
+        <v>87</v>
+      </c>
+      <c r="S2">
+        <v>93</v>
+      </c>
+      <c r="T2">
         <v>85</v>
-      </c>
-      <c r="S2">
-        <v>87</v>
-      </c>
-      <c r="T2">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -601,25 +600,25 @@
         <v>25.83132530120482</v>
       </c>
       <c r="D3">
+        <v>21.26993714779001</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>13.5</v>
+      </c>
+      <c r="G3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>21.26993714779001</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>13.5</v>
-      </c>
       <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>125</v>
+      </c>
+      <c r="J3">
         <v>19</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>125</v>
       </c>
       <c r="L3">
         <v>83</v>
@@ -628,25 +627,25 @@
         <v>87.66265060240964</v>
       </c>
       <c r="N3">
+        <v>2.619239828437172</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
+        <v>86</v>
+      </c>
+      <c r="Q3">
         <v>88</v>
       </c>
-      <c r="O3">
-        <v>2.619239828437172</v>
-      </c>
-      <c r="P3">
-        <v>82</v>
-      </c>
-      <c r="Q3">
-        <v>86</v>
-      </c>
       <c r="R3">
+        <v>90</v>
+      </c>
+      <c r="S3">
+        <v>94</v>
+      </c>
+      <c r="T3">
         <v>88</v>
-      </c>
-      <c r="S3">
-        <v>90</v>
-      </c>
-      <c r="T3">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -660,25 +659,25 @@
         <v>38.92057488653555</v>
       </c>
       <c r="D4">
+        <v>57.62417497484437</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>57.62417497484437</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
-      </c>
       <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>850</v>
+      </c>
+      <c r="J4">
         <v>22</v>
-      </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>850</v>
       </c>
       <c r="L4">
         <v>1322</v>
@@ -687,25 +686,25 @@
         <v>89.07564296520424</v>
       </c>
       <c r="N4">
+        <v>2.889385898973458</v>
+      </c>
+      <c r="O4">
+        <v>80</v>
+      </c>
+      <c r="P4">
+        <v>87</v>
+      </c>
+      <c r="Q4">
         <v>89</v>
       </c>
-      <c r="O4">
-        <v>2.889385898973458</v>
-      </c>
-      <c r="P4">
-        <v>80</v>
-      </c>
-      <c r="Q4">
-        <v>87</v>
-      </c>
       <c r="R4">
+        <v>91</v>
+      </c>
+      <c r="S4">
+        <v>99</v>
+      </c>
+      <c r="T4">
         <v>89</v>
-      </c>
-      <c r="S4">
-        <v>91</v>
-      </c>
-      <c r="T4">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -719,25 +718,25 @@
         <v>39.6764705882353</v>
       </c>
       <c r="D5">
+        <v>22.24072239430008</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>25.5</v>
+      </c>
+      <c r="G5">
         <v>36.5</v>
       </c>
-      <c r="E5">
-        <v>22.24072239430008</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>25.5</v>
-      </c>
       <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>130</v>
+      </c>
+      <c r="J5">
         <v>36.5</v>
-      </c>
-      <c r="I5">
-        <v>43</v>
-      </c>
-      <c r="J5">
-        <v>130</v>
       </c>
       <c r="L5">
         <v>34</v>
@@ -746,25 +745,25 @@
         <v>89</v>
       </c>
       <c r="N5">
+        <v>2.593698657761292</v>
+      </c>
+      <c r="O5">
+        <v>83</v>
+      </c>
+      <c r="P5">
+        <v>87</v>
+      </c>
+      <c r="Q5">
         <v>89</v>
       </c>
-      <c r="O5">
-        <v>2.593698657761292</v>
-      </c>
-      <c r="P5">
-        <v>83</v>
-      </c>
-      <c r="Q5">
-        <v>87</v>
-      </c>
       <c r="R5">
+        <v>91</v>
+      </c>
+      <c r="S5">
+        <v>94</v>
+      </c>
+      <c r="T5">
         <v>89</v>
-      </c>
-      <c r="S5">
-        <v>91</v>
-      </c>
-      <c r="T5">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -778,25 +777,25 @@
         <v>37.84137931034483</v>
       </c>
       <c r="D6">
+        <v>28.27489278679516</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="E6">
-        <v>28.27489278679516</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
       <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>154</v>
+      </c>
+      <c r="J6">
         <v>29</v>
-      </c>
-      <c r="I6">
-        <v>45</v>
-      </c>
-      <c r="J6">
-        <v>154</v>
       </c>
       <c r="L6">
         <v>290</v>
@@ -805,25 +804,25 @@
         <v>88.55862068965517</v>
       </c>
       <c r="N6">
+        <v>2.739878162797627</v>
+      </c>
+      <c r="O6">
+        <v>81</v>
+      </c>
+      <c r="P6">
+        <v>87</v>
+      </c>
+      <c r="Q6">
         <v>89</v>
       </c>
-      <c r="O6">
-        <v>2.739878162797627</v>
-      </c>
-      <c r="P6">
-        <v>81</v>
-      </c>
-      <c r="Q6">
-        <v>87</v>
-      </c>
       <c r="R6">
+        <v>90</v>
+      </c>
+      <c r="S6">
+        <v>95</v>
+      </c>
+      <c r="T6">
         <v>89</v>
-      </c>
-      <c r="S6">
-        <v>90</v>
-      </c>
-      <c r="T6">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -837,25 +836,25 @@
         <v>33.60915492957746</v>
       </c>
       <c r="D7">
+        <v>31.26042532515322</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>31.26042532515322</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
       <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>250</v>
+      </c>
+      <c r="J7">
         <v>22</v>
-      </c>
-      <c r="I7">
-        <v>36</v>
-      </c>
-      <c r="J7">
-        <v>250</v>
       </c>
       <c r="L7">
         <v>284</v>
@@ -864,25 +863,25 @@
         <v>88.91901408450704</v>
       </c>
       <c r="N7">
+        <v>2.63111131040025</v>
+      </c>
+      <c r="O7">
+        <v>82</v>
+      </c>
+      <c r="P7">
+        <v>87</v>
+      </c>
+      <c r="Q7">
         <v>89</v>
       </c>
-      <c r="O7">
-        <v>2.63111131040025</v>
-      </c>
-      <c r="P7">
-        <v>82</v>
-      </c>
-      <c r="Q7">
-        <v>87</v>
-      </c>
       <c r="R7">
+        <v>91</v>
+      </c>
+      <c r="S7">
+        <v>95</v>
+      </c>
+      <c r="T7">
         <v>89</v>
-      </c>
-      <c r="S7">
-        <v>91</v>
-      </c>
-      <c r="T7">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/wine_country_stats/Q2E_Australia.xlsx
+++ b/02-output/wine_country_stats/Q2E_Australia.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>Australia price price</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>Australia points points</t>
+    <t>Australia_priceprice</t>
+  </si>
+  <si>
+    <t>Australia_pointspoints</t>
   </si>
   <si>
     <t>Count</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -419,12 +416,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,95 +430,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>2225</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>2225</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>35.09752808988764</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>88.59550561797752</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>47.92163227718704</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2.953777231839367</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>39</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>850</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>99</v>
       </c>
     </row>
